--- a/biology/Zoologie/Euptoieta/Euptoieta.xlsx
+++ b/biology/Zoologie/Euptoieta/Euptoieta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptoieta est un genre américain de lépidoptères (papillons) de la famille des Nymphalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euptoieta a été décrit par l'entomologiste britannique Henry Doubleday en 1848[1].
-Son espèce type est Papilio claudia Cramer, [1775][2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euptoieta a été décrit par l'entomologiste britannique Henry Doubleday en 1848.
+Son espèce type est Papilio claudia Cramer, . 
 Il est actuellement classé dans la famille des Nymphalidae, la sous-famille des Heliconiinae, la tribu des Argynnini et la sous-tribu des Euptoietina.
 </t>
         </is>
@@ -544,12 +558,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Euptoieta comporte huit espèces décrites[2],[3], toutes originaires du continent américain :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Euptoieta comporte huit espèces décrites toutes originaires du continent américain :
 Euptoieta bogotana Staudinger, 1885 — Colombie.
-Euptoieta claudia (Cramer, [1775]) — la Fritillaire panachée — Amérique du Nord.
-Euptoieta hegesia (Cramer, [1779]) — du Sud des États-Unis au Brésil.
+Euptoieta claudia (Cramer, ) — la Fritillaire panachée — Amérique du Nord.
+Euptoieta hegesia (Cramer, ) — du Sud des États-Unis au Brésil.
 Euptoieta hortensia (Blanchard, 1852) — Chili, Argentine.
 Euptoieta perdistincta Hall, 1930 — Pérou.
 Euptoieta poasina Schaus, 1913 — Costa Rica.
